--- a/03_Outputs/all/01_TablasDescriptivas/idx13_saludmental.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx13_saludmental.xlsx
@@ -402,7 +402,7 @@
         <v>-63.5276165684057</v>
       </c>
       <c r="D2">
-        <v>33.38286494380742</v>
+        <v>33.38286494380743</v>
       </c>
       <c r="E2">
         <v>-189.483657034581</v>
@@ -578,7 +578,7 @@
         <v>-4.635368910912719</v>
       </c>
       <c r="D10">
-        <v>9.518959503235434</v>
+        <v>9.518959503235433</v>
       </c>
       <c r="E10">
         <v>-82.00082000820009</v>
